--- a/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.01883263582714</v>
+        <v>4.213610496651674</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.743881288728095</v>
+        <v>5.287149937782416</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.78111782305969</v>
+        <v>-13.76157470392567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.75135107135491</v>
+        <v>15.90723840717633</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.929599967449593</v>
+        <v>7.582773739804403</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-17.38963536732861</v>
+        <v>-17.60394074627376</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>12.00125515666159</v>
+        <v>12.08873969466698</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.962089986032115</v>
+        <v>8.546332864833595</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.12106283545768</v>
+        <v>-14.09005964512914</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.53814614939519</v>
+        <v>16.41035590425419</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.95606611337583</v>
+        <v>18.55038621403219</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.877164292915533</v>
+        <v>-4.639012030287996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31.16331470136908</v>
+        <v>31.72999059764078</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.78283892114067</v>
+        <v>22.48528978997381</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.354714144668511</v>
+        <v>-7.665025529741786</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>22.46098467040596</v>
+        <v>22.76227733321375</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.83972491223437</v>
+        <v>18.06696416764951</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-7.2002443375862</v>
+        <v>-7.358818025068209</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2682598669388471</v>
+        <v>0.2684256256749755</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3297982626062197</v>
+        <v>0.3436360590538974</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8669298773483701</v>
+        <v>-0.854056831258717</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7088941068771377</v>
+        <v>0.7478862866501361</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3391402872611075</v>
+        <v>0.3270365124061965</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7931206838503162</v>
+        <v>-0.8025297381732071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6910806566462956</v>
+        <v>0.6864881030716204</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4626639461423419</v>
+        <v>0.4851369600774556</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7969637506912917</v>
+        <v>-0.7947946538948086</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.83923827944789</v>
+        <v>1.694670228297425</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.898945616829021</v>
+        <v>1.972948877538909</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4969384248873768</v>
+        <v>-0.4634455792673893</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.121264090954176</v>
+        <v>2.213723431075931</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.577666407459386</v>
+        <v>1.559003260143377</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.5216591468533964</v>
+        <v>-0.5332250284146159</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.744033516463311</v>
+        <v>1.773238539529353</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.38870450655472</v>
+        <v>1.447760204722121</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.5706865894496895</v>
+        <v>-0.5672182990678449</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.89628233610877</v>
+        <v>-15.95507476700638</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-21.14161743638311</v>
+        <v>-21.44408943183352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.52832860957389</v>
+        <v>-15.09601791074542</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-20.37427074442203</v>
+        <v>-19.78081288298711</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-31.04211237119651</v>
+        <v>-30.98311959460337</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-23.67356781432399</v>
+        <v>-23.30322179003999</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-17.14320968656102</v>
+        <v>-16.45758612810528</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-24.94234968947454</v>
+        <v>-24.68036035648642</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-18.1413005743524</v>
+        <v>-17.92247898751233</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.118118018525463</v>
+        <v>-6.644003217473311</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-12.29405582688818</v>
+        <v>-12.32636620699767</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.005118431775955</v>
+        <v>-4.81827299414338</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-9.338805055766244</v>
+        <v>-9.233943625192943</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-21.03948683475226</v>
+        <v>-21.32313031922226</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-13.4685863527792</v>
+        <v>-12.85125253897213</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-9.475371366827677</v>
+        <v>-8.971731591647748</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-18.19256568849143</v>
+        <v>-17.92059892052356</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-10.60316338088684</v>
+        <v>-10.84556667584802</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.74535126819861</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.499518680495129</v>
+        <v>-0.4995186804951289</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.64531217202373</v>
+        <v>-0.6425715659992532</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8386757239238837</v>
+        <v>-0.8378196408000339</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6081152562533519</v>
+        <v>-0.601658504971971</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5442377063395154</v>
+        <v>-0.5333366991039961</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8072474613252127</v>
+        <v>-0.8150074579766655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6208291633324895</v>
+        <v>-0.6210266886829848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5532388174026441</v>
+        <v>-0.5459764892001988</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8032261210657219</v>
+        <v>-0.7961602249656415</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5870312444355561</v>
+        <v>-0.5856750905652681</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3078377970228905</v>
+        <v>-0.3370864277871635</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.6393919746742915</v>
+        <v>-0.6295696500606393</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2437975607953459</v>
+        <v>-0.225884801169246</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2868228548862067</v>
+        <v>-0.2862755195262239</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.6469408401535143</v>
+        <v>-0.649583778582756</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4160433414893454</v>
+        <v>-0.4174654019790154</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3491800217669798</v>
+        <v>-0.3403882841317405</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.6764819706164255</v>
+        <v>-0.6719635667892854</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.388753758848927</v>
+        <v>-0.4023917992416746</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.422537557883958</v>
+        <v>3.171691256021758</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.925293484011046</v>
+        <v>1.840868688165188</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.535678019307379</v>
+        <v>-1.288339196600462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.42127849737847</v>
+        <v>8.094364904245662</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.186819480961102</v>
+        <v>1.113663108429834</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8129413703824708</v>
+        <v>0.335365292468079</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.95202117624812</v>
+        <v>7.591921466953081</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.549581772794191</v>
+        <v>2.968192990214044</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9482192223912125</v>
+        <v>1.138690565415925</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.83282016614128</v>
+        <v>12.5353543189789</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.35664967976161</v>
+        <v>10.49601571501001</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.314359303630929</v>
+        <v>6.401038092680808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.28288296707199</v>
+        <v>19.20592243714351</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.93476762702778</v>
+        <v>10.99789646708462</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.265949626513432</v>
+        <v>9.141647287546375</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.34727379641617</v>
+        <v>14.77465321710019</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.16310590243625</v>
+        <v>9.334892432487269</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.794105116371202</v>
+        <v>6.997305581653161</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3745759100531063</v>
+        <v>0.366111741924691</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1850929502047815</v>
+        <v>0.1831658733906425</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2159209878709905</v>
+        <v>-0.1593304354535568</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.7383714525423291</v>
+        <v>0.6926611570418972</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08593030363020207</v>
+        <v>0.106470400199301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06543242428139642</v>
+        <v>0.02384819727153124</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7324027144292045</v>
+        <v>0.828434196551766</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2623240222675504</v>
+        <v>0.3287628580887771</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09866411185551062</v>
+        <v>0.1316977381888415</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.075750501762124</v>
+        <v>2.976260025792529</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.413426081052305</v>
+        <v>2.516849835232521</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.451309990507225</v>
+        <v>1.518066833991488</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.914463498490932</v>
+        <v>3.021995436520587</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.62440089667127</v>
+        <v>1.639088290834992</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.390300293291986</v>
+        <v>1.341778345324571</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.287890882381456</v>
+        <v>2.407560475716898</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.462141619915214</v>
+        <v>1.493246999981329</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.136764447203069</v>
+        <v>1.182596976317752</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>6.32583984907116</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.06699734779883337</v>
+        <v>-0.06699734779883615</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.18348338438923</v>
+        <v>-0.7522215330655788</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5626734836536137</v>
+        <v>-0.683759496292455</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.0507475579397</v>
+        <v>-4.740853306933388</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11.38266123689741</v>
+        <v>11.04500912376217</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.473085301760486</v>
+        <v>1.98585781204459</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.194704324081172</v>
+        <v>-6.317919502903265</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.819389444529481</v>
+        <v>6.976289328844233</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.012093388801066</v>
+        <v>2.459423035919828</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.690088343188222</v>
+        <v>-3.715502994638626</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.979042949961968</v>
+        <v>9.855188027562402</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.54591871094411</v>
+        <v>9.610325929801915</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.376601931149358</v>
+        <v>6.802439255133495</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.68063165109211</v>
+        <v>23.7171957592259</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.70728797779032</v>
+        <v>13.93647827441654</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.181346937770981</v>
+        <v>4.301203495221546</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15.20187526293547</v>
+        <v>15.22748111309001</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.21634831542005</v>
+        <v>10.60090377945619</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.053787796199406</v>
+        <v>3.675190780258335</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.3978219138791067</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.004213355659022822</v>
+        <v>-0.004213355659022997</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0612658043212622</v>
+        <v>-0.06271451308876758</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04463247153940476</v>
+        <v>-0.05401175382391537</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.263626017248519</v>
+        <v>-0.3103182583265741</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5156876891089428</v>
+        <v>0.5104533573049207</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1211021220475655</v>
+        <v>0.09140431762904888</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2773678989335516</v>
+        <v>-0.2965622190412595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.377957812140871</v>
+        <v>0.3933309597315091</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1207136422845063</v>
+        <v>0.1304334634295451</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2133637990037829</v>
+        <v>-0.2093811700541364</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9549388202971785</v>
+        <v>0.8640601090493629</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9807409475626475</v>
+        <v>0.8389079612841285</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6150206283235655</v>
+        <v>0.5929783565888969</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.479746679069019</v>
+        <v>1.525328721049143</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9733325556448057</v>
+        <v>0.8861946854599903</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2835201983985524</v>
+        <v>0.2777185386432691</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.084108243860195</v>
+        <v>1.108711860235656</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7476925672558014</v>
+        <v>0.7306691439137153</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2855486628178463</v>
+        <v>0.2574812933812473</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-5.060095727649879</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12.93713800734184</v>
+        <v>12.93713800734186</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-5.692115900406258</v>
@@ -1511,7 +1511,7 @@
         <v>-9.432757366318606</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>15.70164581049632</v>
+        <v>15.70164581049631</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-9.621779957560195</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-20.9389322747812</v>
+        <v>-21.39164261530626</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-13.12142483909477</v>
+        <v>-13.85064910670678</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.72744870318461</v>
+        <v>4.35173713013514</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-14.8232707134785</v>
+        <v>-14.91030186700255</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-18.82601482609913</v>
+        <v>-18.1910226351273</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.103686624830063</v>
+        <v>7.229212446474337</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-15.63056424685925</v>
+        <v>-15.39192369540915</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-13.19852955152106</v>
+        <v>-13.175282602129</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.886710258815199</v>
+        <v>8.116535456446474</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.414473851371107</v>
+        <v>-6.669962662674013</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.026482222893586</v>
+        <v>2.820756910806616</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20.93768673246954</v>
+        <v>20.5128694716053</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.556107599123884</v>
+        <v>3.14759392244022</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.567010922156244</v>
+        <v>-0.7959423338628467</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>23.35690125448623</v>
+        <v>23.43782677267683</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-3.972675289620104</v>
+        <v>-3.624832396076774</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.948182623046417</v>
+        <v>-1.122253378251956</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.42235544533413</v>
+        <v>20.37620849330015</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2079273024126606</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5316073749569621</v>
+        <v>0.5316073749569628</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.176938852575346</v>
@@ -1616,7 +1616,7 @@
         <v>-0.2932163178369111</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4880840871591211</v>
+        <v>0.4880840871591207</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3400585581130034</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7345365022928947</v>
+        <v>-0.7353123519546346</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4607926961127668</v>
+        <v>-0.4680397017739999</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1885671382525728</v>
+        <v>0.1514164848158272</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4018879269529454</v>
+        <v>-0.4086291200622912</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5099810969098368</v>
+        <v>-0.4970527729088537</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1721126596736852</v>
+        <v>0.1907793221558363</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4925614890026469</v>
+        <v>-0.4855697019952771</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.417231400766737</v>
+        <v>-0.4133610569668661</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2851800979882607</v>
+        <v>0.2596975556988918</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2967333433071437</v>
+        <v>-0.2997198136717641</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1197297869783685</v>
+        <v>0.1377044489319588</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.110119230367426</v>
+        <v>1.042414335543217</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.104445211685141</v>
+        <v>0.1146658725375267</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.04932309149359577</v>
+        <v>-0.01276759898673403</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8452413822520566</v>
+        <v>0.8677845810563233</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1520709355890491</v>
+        <v>-0.1313192219843952</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.07624040246102784</v>
+        <v>-0.04140751932895573</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8305374356495161</v>
+        <v>0.8412304208738954</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.7452530370444368</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.888540778183174</v>
+        <v>2.888540778183171</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>8.945623266382189</v>
@@ -1725,7 +1725,7 @@
         <v>4.668829592760915</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.9517470655139054</v>
+        <v>0.9517470655138943</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.574250304619866</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.101929322100702</v>
+        <v>-1.512112597268629</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.1436029292292</v>
+        <v>-4.331606774942722</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.932354313562156</v>
+        <v>-2.274039217551164</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.214113669437887</v>
+        <v>2.23128040197324</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.520807788187466</v>
+        <v>-1.708311184930297</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.348136745155503</v>
+        <v>-4.564763203441031</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.984665963405953</v>
+        <v>2.47646562025478</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.566136132468372</v>
+        <v>-0.7137257586831163</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.681865833696881</v>
+        <v>-1.598028144125235</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.10108468130064</v>
+        <v>10.21602598213752</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.901925401827589</v>
+        <v>5.39602336003527</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.969337508751553</v>
+        <v>7.78206483503391</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15.53791605244032</v>
+        <v>15.72973772426401</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.19488191105347</v>
+        <v>11.27553499348191</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.086059605960923</v>
+        <v>5.990906216481281</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.82551251661167</v>
+        <v>10.74334129651748</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.165732320559523</v>
+        <v>7.550752700758976</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.56873079632944</v>
+        <v>5.405859149148709</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.07609126253864673</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.2949236081988852</v>
+        <v>0.294923608198885</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.6246231129434258</v>
@@ -1830,7 +1830,7 @@
         <v>0.3259984002447389</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06645520352172048</v>
+        <v>0.0664552035217197</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.543858840197347</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.09282002173732358</v>
+        <v>-0.1366658477138595</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.329510393910226</v>
+        <v>-0.3517985266267468</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1651468407430385</v>
+        <v>-0.2031981260267773</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1189624440281347</v>
+        <v>0.1188245611682328</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1013071154881198</v>
+        <v>-0.1242792579076862</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2478677093491979</v>
+        <v>-0.2573388541862781</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1425243834617504</v>
+        <v>0.1867380979725357</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.112431923493146</v>
+        <v>-0.05565035383206707</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1180725112828317</v>
+        <v>-0.1230086371756238</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.355788876282462</v>
+        <v>1.420182052275611</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8934522719612041</v>
+        <v>0.7303387690138478</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.163208084591544</v>
+        <v>1.058452107427286</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.384270816395866</v>
+        <v>1.397765619374612</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9973419255624031</v>
+        <v>1.004356826017435</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.547847958359104</v>
+        <v>0.5171616956544489</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.102986251044642</v>
+        <v>1.115632615011429</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7131198201148943</v>
+        <v>0.7653974740139664</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5866150862341299</v>
+        <v>0.5417116485715107</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>0.8433024802537464</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>7.87729209673482</v>
+        <v>7.877292096734823</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.11633561272957</v>
+        <v>1.448158285357467</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.367266108472059</v>
+        <v>-2.186178598007121</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.799743113407989</v>
+        <v>1.597582068082826</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.750267982041536</v>
+        <v>1.529018295468249</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.159955768415123</v>
+        <v>-3.898649132693314</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.326227784939619</v>
+        <v>4.586754408497592</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.79523980389544</v>
+        <v>2.661317751618711</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.076335126267137</v>
+        <v>-1.855814376106723</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.845462890408488</v>
+        <v>4.79108480714149</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.365240760241415</v>
+        <v>9.465178689110454</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.554943843708076</v>
+        <v>5.689625274522765</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10.10134472142514</v>
+        <v>10.19139350230696</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.67136517427299</v>
+        <v>10.38072053590059</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.250167909021188</v>
+        <v>4.567084813924009</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.79154325485582</v>
+        <v>13.75828665630135</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.790161729168</v>
+        <v>8.529261932538319</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.690018161107149</v>
+        <v>3.794923282764223</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.10087529227983</v>
+        <v>10.78315890424529</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.05830967683809711</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.544670942248024</v>
+        <v>0.5446709422480243</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.07700397789907389</v>
+        <v>0.08956930038088984</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1678553240948962</v>
+        <v>-0.1612498608150452</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1250801266627315</v>
+        <v>0.1297600383341777</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.08950926371610358</v>
+        <v>0.06688918116483931</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.218893257475692</v>
+        <v>-0.2108978348804979</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.265342690411048</v>
+        <v>0.2359241914344758</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1808006891751638</v>
+        <v>0.1612295300214796</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1346180691846305</v>
+        <v>-0.1203531759438555</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3092294352443573</v>
+        <v>0.3012873624481841</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9754635478039633</v>
+        <v>0.9284141870253948</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5704055301762648</v>
+        <v>0.5773430888323042</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.04004112604349</v>
+        <v>1.062312584529062</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7118102477240424</v>
+        <v>0.6649498811582043</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2880942290844718</v>
+        <v>0.2994929839828935</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9047268452125352</v>
+        <v>0.9435486712151683</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6830700173387849</v>
+        <v>0.6468327603080708</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2876633202344099</v>
+        <v>0.2907304213088439</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8517291824166683</v>
+        <v>0.823899803175694</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-13.86562967793294</v>
+        <v>-13.78618491633473</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-24.85215310544263</v>
+        <v>-24.65503554465085</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-20.59391125630011</v>
+        <v>-19.97637011500141</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-8.641132241820646</v>
+        <v>-8.441132159725049</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-23.00060969034727</v>
+        <v>-23.18811350566809</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-14.59491948659002</v>
+        <v>-14.51460026902622</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-9.829974255098641</v>
+        <v>-9.911655619723897</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-22.97205366516854</v>
+        <v>-22.87864897764182</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-16.36725154758257</v>
+        <v>-16.17090177724192</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-5.254514313891633</v>
+        <v>-5.426342737316771</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-17.68698066620056</v>
+        <v>-17.82483812610602</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-12.99761491115904</v>
+        <v>-12.56256653402589</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.3718432979324278</v>
+        <v>0.5111738080211696</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-14.86385580267801</v>
+        <v>-15.56425234102316</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-6.933511671618079</v>
+        <v>-6.864467241584868</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-3.920662353618824</v>
+        <v>-3.726080708780766</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-17.64859796602784</v>
+        <v>-17.68040895806059</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-10.82958080209848</v>
+        <v>-10.875571608874</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4806573859201805</v>
+        <v>-0.484841927052768</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8665045427414793</v>
+        <v>-0.8668090735350511</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7140361725208588</v>
+        <v>-0.7046765371829617</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2851558597407808</v>
+        <v>-0.2782008721018208</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.7605209644016346</v>
+        <v>-0.7592807632405898</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4857961651147408</v>
+        <v>-0.478941785226829</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3426094635141124</v>
+        <v>-0.345462187841325</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.7947925223639596</v>
+        <v>-0.7956622138663821</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5674492636455194</v>
+        <v>-0.5658220540642014</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2101528541966425</v>
+        <v>-0.2211016314319076</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.7335978649619528</v>
+        <v>-0.7387620036031997</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.53620711789026</v>
+        <v>-0.5299801864888952</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01532071203389366</v>
+        <v>0.02258576780927755</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.5871978960897858</v>
+        <v>-0.594729080539438</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2713796881587898</v>
+        <v>-0.268473618999542</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1495251764725105</v>
+        <v>-0.1477636747633501</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.6838992389189469</v>
+        <v>-0.6882763022166769</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.4224226424752064</v>
+        <v>-0.4257392329015456</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.831946040946199</v>
+        <v>-3.034682885097053</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-7.140434419631314</v>
+        <v>-7.038326960940811</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-5.148049117272635</v>
+        <v>-5.359922135562041</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.509236370889492</v>
+        <v>1.360911629065493</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-7.701023369986474</v>
+        <v>-7.671780967902405</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-4.90876143390443</v>
+        <v>-4.769975433888773</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.1598832899267911</v>
+        <v>-0.1163388550711425</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-6.847476667917432</v>
+        <v>-6.793572246585187</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-4.562751792582592</v>
+        <v>-4.444451667104561</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.6894428656571799</v>
+        <v>0.6244610024627166</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-3.598277028055819</v>
+        <v>-3.653474957120601</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.739322731832091</v>
+        <v>-1.727421561583641</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.565569813382145</v>
+        <v>5.510956975445718</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-3.761501553345524</v>
+        <v>-3.663508153247477</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.139437668189806</v>
+        <v>-1.200132632803695</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.484160614603218</v>
+        <v>2.608679947504593</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-4.202818620566648</v>
+        <v>-4.146620373756417</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-1.962062353594384</v>
+        <v>-1.899852645521665</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1609725986075091</v>
+        <v>-0.1684105796467487</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.397167038586508</v>
+        <v>-0.3960700247613023</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2901053980528567</v>
+        <v>-0.300276271607919</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.06407330205395462</v>
+        <v>0.05880680982312001</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3308704950339331</v>
+        <v>-0.3272407757123807</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2050757419963943</v>
+        <v>-0.2032447003843185</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.008003350722544805</v>
+        <v>-0.004280035644069449</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.3374409819038545</v>
+        <v>-0.3342203916353439</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.2233389234003618</v>
+        <v>-0.2195899646088192</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.04257342670169618</v>
+        <v>0.03880913368784059</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.2238576176251802</v>
+        <v>-0.2308788964261582</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1090718438960474</v>
+        <v>-0.1073031058784242</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2602978568495667</v>
+        <v>0.2621136763751922</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.1753258782848202</v>
+        <v>-0.1737693364454028</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.05433245336896649</v>
+        <v>-0.05654663007256064</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1306454954992261</v>
+        <v>0.1391755362658028</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.2207682140875929</v>
+        <v>-0.2192451599683198</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.1038049302317448</v>
+        <v>-0.09953858213520923</v>
       </c>
     </row>
     <row r="58">
